--- a/Excel_Spreadsheets/Availabilities(Responses).xlsx
+++ b/Excel_Spreadsheets/Availabilities(Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="40">
   <si>
     <t>Timestamp</t>
   </si>
@@ -49,13 +49,88 @@
     <t/>
   </si>
   <si>
+    <t>Samhita Katteri</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>John John Huddleston</t>
+  </si>
+  <si>
     <t>George Zhou</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>Eric mou</t>
+  </si>
+  <si>
+    <t>Summer Bui</t>
+  </si>
+  <si>
+    <t>Evan Chin</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Nico Carballal</t>
+  </si>
+  <si>
+    <t>Andrew Shih</t>
+  </si>
+  <si>
+    <t>Elizabeth Greenbeth</t>
+  </si>
+  <si>
+    <t>Aaron He</t>
+  </si>
+  <si>
+    <t>Kyle KishiGOATo</t>
+  </si>
+  <si>
+    <t>Christopher Song</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
+  </si>
+  <si>
+    <t>Briana Ong</t>
+  </si>
+  <si>
+    <t>Steph Huang</t>
+  </si>
+  <si>
+    <t>Matthew Cuan</t>
+  </si>
+  <si>
+    <t>Patrick Oare</t>
+  </si>
+  <si>
+    <t>Qwerty Asdf</t>
+  </si>
+  <si>
+    <t>Lebron James</t>
+  </si>
+  <si>
+    <t>Luka Doncic</t>
+  </si>
+  <si>
+    <t>Site Member</t>
+  </si>
+  <si>
+    <t>Brendan Tsuda</t>
+  </si>
+  <si>
+    <t>Ryan Dai</t>
+  </si>
+  <si>
+    <t>Prashant Malyala</t>
+  </si>
+  <si>
+    <t>Krish Nayar</t>
   </si>
 </sst>
 </file>
@@ -118,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -133,6 +208,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -433,60 +511,898 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
-        <v>44157.79476081018</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6">
+        <v>44157.81005159722</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="A8" s="6">
+        <v>44157.810241307874</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="A9" s="6">
+        <v>44157.81041652778</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6">
+        <v>44157.81053644676</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6">
+        <v>44157.810785925925</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>44157.81162050926</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6">
+        <v>44157.81180628472</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6">
+        <v>44157.81202841435</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6">
+        <v>44157.8122109838</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6">
+        <v>44157.81240778935</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6">
+        <v>44157.812629039356</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6">
+        <v>44157.81279054398</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6">
+        <v>44157.81326447916</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6">
+        <v>44157.81465712963</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6">
+        <v>44157.81528886574</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6">
+        <v>44157.81552444445</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6">
+        <v>44157.815919976856</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6">
+        <v>44157.8164578588</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6">
+        <v>44157.81701155093</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6">
+        <v>44157.81750480324</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6">
+        <v>44157.818514467595</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6">
+        <v>44157.81928862269</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6">
+        <v>44157.819706828705</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6">
+        <v>44157.81996167824</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6">
+        <v>44157.82067194444</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6">
+        <v>44157.82095840278</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6">
+        <v>44157.8212602662</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="7"/>
+      <c r="B36" s="9"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
